--- a/(Allverify)1day_1e-06M_0.01K.xlsx
+++ b/(Allverify)1day_1e-06M_0.01K.xlsx
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>455</v>
+        <v>607</v>
       </c>
       <c r="C2">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -533,13 +533,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>51.24</v>
       </c>
       <c r="H2">
-        <v>333563</v>
+        <v>544103</v>
       </c>
     </row>
   </sheetData>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>16.69772460697324</v>
+        <v>15.09610883730434</v>
       </c>
       <c r="D2">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>10.81</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2297.462292105625</v>
+        <v>403.9561346682191</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>19.74344821703164</v>
+        <v>61.92727483876799</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>63.55882717599513</v>
+        <v>22.97661632392766</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>89.19</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3332.620423110896</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -741,7 +741,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -801,19 +801,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>55154610422</v>
+        <v>55740869480</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>51.33311392972111</v>
+        <v>51.35154016211454</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1714</v>
+        <v>1889</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -827,19 +827,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>27361802107</v>
+        <v>76726316129</v>
       </c>
       <c r="D4">
-        <v>55154610422</v>
+        <v>55740869480</v>
       </c>
       <c r="E4">
-        <v>102.7219440268513</v>
+        <v>102.7586780361821</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1768</v>
+        <v>1816</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -853,19 +853,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>66239437291</v>
+        <v>67536178176</v>
       </c>
       <c r="D5">
-        <v>27361802107</v>
+        <v>76726316129</v>
       </c>
       <c r="E5">
-        <v>154.1661321131436</v>
+        <v>154.2210562053177</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1822</v>
+        <v>1906</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -879,19 +879,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>71421850133</v>
+        <v>57526975202</v>
       </c>
       <c r="D6">
-        <v>66239437291</v>
+        <v>67536178176</v>
       </c>
       <c r="E6">
-        <v>205.6653223126747</v>
+        <v>205.7383195503359</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1902</v>
+        <v>1837</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -905,19 +905,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>99954375703</v>
+        <v>85519936248</v>
       </c>
       <c r="D7">
-        <v>71421850133</v>
+        <v>57526975202</v>
       </c>
       <c r="E7">
-        <v>257.2191610374581</v>
+        <v>257.3101152349795</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1784</v>
+        <v>1831</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -931,19 +931,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>86270319844</v>
+        <v>2643650753</v>
       </c>
       <c r="D8">
-        <v>99954375703</v>
+        <v>85519936248</v>
       </c>
       <c r="E8">
-        <v>308.8272969725987</v>
+        <v>308.9360926912438</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1796</v>
+        <v>1818</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -957,19 +957,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>47324509923</v>
+        <v>54161028710</v>
       </c>
       <c r="D9">
-        <v>86270319844</v>
+        <v>2643650753</v>
       </c>
       <c r="E9">
-        <v>360.4893810615989</v>
+        <v>360.6159036047943</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1848</v>
+        <v>1829</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -983,19 +983,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>6132454404</v>
+        <v>36159576590</v>
       </c>
       <c r="D10">
-        <v>47324509923</v>
+        <v>54161028710</v>
       </c>
       <c r="E10">
-        <v>412.2050664919977</v>
+        <v>412.3492019004791</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1009,19 +1009,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>77921195232</v>
+        <v>78307332177</v>
       </c>
       <c r="D11">
-        <v>6132454404</v>
+        <v>36159576590</v>
       </c>
       <c r="E11">
-        <v>463.9740086808285</v>
+        <v>464.1356437279341</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1836</v>
+        <v>1896</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1035,19 +1035,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>74093596536</v>
+        <v>17499234376</v>
       </c>
       <c r="D12">
-        <v>77921195232</v>
+        <v>78307332177</v>
       </c>
       <c r="E12">
-        <v>515.7958652603019</v>
+        <v>515.9748874472804</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1800</v>
+        <v>1873</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1061,19 +1061,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>42638024764</v>
+        <v>61682001961</v>
       </c>
       <c r="D13">
-        <v>74093596536</v>
+        <v>17499234376</v>
       </c>
       <c r="E13">
-        <v>567.6702960636298</v>
+        <v>567.866593614914</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1840</v>
+        <v>1883</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1087,19 +1087,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>33024098348</v>
+        <v>59079629177</v>
       </c>
       <c r="D14">
-        <v>42638024764</v>
+        <v>61682001961</v>
       </c>
       <c r="E14">
-        <v>619.5969631107873</v>
+        <v>619.810424969387</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1808</v>
+        <v>1893</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1113,19 +1113,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>45834864602</v>
+        <v>37126852360</v>
       </c>
       <c r="D15">
-        <v>33024098348</v>
+        <v>59079629177</v>
       </c>
       <c r="E15">
-        <v>671.5755305945119</v>
+        <v>671.8060464173789</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1832</v>
+        <v>1825</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1139,19 +1139,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>87513668597</v>
+        <v>97031688771</v>
       </c>
       <c r="D16">
-        <v>45834864602</v>
+        <v>37126852360</v>
       </c>
       <c r="E16">
-        <v>723.605664866279</v>
+        <v>723.8531250197589</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1817</v>
+        <v>1852</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1165,19 +1165,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>98579630599</v>
+        <v>79009118622</v>
       </c>
       <c r="D17">
-        <v>87513668597</v>
+        <v>97031688771</v>
       </c>
       <c r="E17">
-        <v>775.6870344224961</v>
+        <v>775.9513299777371</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1766</v>
+        <v>1831</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1191,19 +1191,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>21236850578</v>
+        <v>86040515463</v>
       </c>
       <c r="D18">
-        <v>98579630599</v>
+        <v>79009118622</v>
       </c>
       <c r="E18">
-        <v>827.819309890727</v>
+        <v>828.1003326191056</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1862</v>
+        <v>1841</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1217,19 +1217,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>57016214908</v>
+        <v>97491247363</v>
       </c>
       <c r="D19">
-        <v>21236850578</v>
+        <v>86040515463</v>
       </c>
       <c r="E19">
-        <v>880.0021640158952</v>
+        <v>880.2998063845669</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1818</v>
+        <v>1841</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1243,19 +1243,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>99395130064</v>
+        <v>42918469485</v>
       </c>
       <c r="D20">
-        <v>57016214908</v>
+        <v>97491247363</v>
       </c>
       <c r="E20">
-        <v>932.2352716467612</v>
+        <v>932.5494268141508</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1854</v>
+        <v>1818</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1269,19 +1269,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>58412417461</v>
+        <v>95214764616</v>
       </c>
       <c r="D21">
-        <v>99395130064</v>
+        <v>42918469485</v>
       </c>
       <c r="E21">
-        <v>984.5183097223609</v>
+        <v>984.8488715337193</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1853</v>
+        <v>1842</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1295,19 +1295,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>22584954784</v>
+        <v>2219885894</v>
       </c>
       <c r="D22">
-        <v>58412417461</v>
+        <v>95214764616</v>
       </c>
       <c r="E22">
-        <v>1036.850957258551</v>
+        <v>1037.197820241557</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1950</v>
+        <v>1790</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1321,19 +1321,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1162848311</v>
+        <v>97133327180</v>
       </c>
       <c r="D23">
-        <v>22584954784</v>
+        <v>2219885894</v>
       </c>
       <c r="E23">
-        <v>1089.232895334683</v>
+        <v>1089.595954695047</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1773</v>
+        <v>1843</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1347,19 +1347,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>79324599001</v>
+        <v>99128855333</v>
       </c>
       <c r="D24">
-        <v>1162848311</v>
+        <v>97133327180</v>
       </c>
       <c r="E24">
-        <v>1141.663807080257</v>
+        <v>1142.042958697439</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1856</v>
+        <v>1755</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1373,19 +1373,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>68687194010</v>
+        <v>67473058924</v>
       </c>
       <c r="D25">
-        <v>79324599001</v>
+        <v>99128855333</v>
       </c>
       <c r="E25">
-        <v>1194.143377661925</v>
+        <v>1194.538518084688</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1399,19 +1399,19 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>99173994689</v>
+        <v>16595468190</v>
       </c>
       <c r="D26">
-        <v>68687194010</v>
+        <v>67473058924</v>
       </c>
       <c r="E26">
-        <v>1246.671294270285</v>
+        <v>1247.082320712395</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1861</v>
+        <v>1842</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1425,19 +1425,19 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>85420038716</v>
+        <v>18346702121</v>
       </c>
       <c r="D27">
-        <v>99173994689</v>
+        <v>16595468190</v>
       </c>
       <c r="E27">
-        <v>1299.247246106781</v>
+        <v>1299.674056442822</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1799</v>
+        <v>1969</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1451,19 +1451,19 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>70478066991</v>
+        <v>91685943224</v>
       </c>
       <c r="D28">
-        <v>85420038716</v>
+        <v>18346702121</v>
       </c>
       <c r="E28">
-        <v>1351.870924370873</v>
+        <v>1352.313417131987</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1777</v>
+        <v>1864</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1477,19 +1477,19 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>72636012580</v>
+        <v>36736872374</v>
       </c>
       <c r="D29">
-        <v>70478066991</v>
+        <v>91685943224</v>
       </c>
       <c r="E29">
-        <v>1404.542022247258</v>
+        <v>1405.000096616853</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1897</v>
+        <v>1819</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1503,19 +1503,19 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>15235080058</v>
+        <v>29759147099</v>
       </c>
       <c r="D30">
-        <v>72636012580</v>
+        <v>36736872374</v>
       </c>
       <c r="E30">
-        <v>1457.26023489296</v>
+        <v>1457.733790702589</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1897</v>
+        <v>1825</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1529,19 +1529,19 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>25283914590</v>
+        <v>30144128845</v>
       </c>
       <c r="D31">
-        <v>15235080058</v>
+        <v>29759147099</v>
       </c>
       <c r="E31">
-        <v>1510.025259424743</v>
+        <v>1510.514197149919</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1789</v>
+        <v>1853</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1555,19 +1555,19 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>70326475292</v>
+        <v>81702531187</v>
       </c>
       <c r="D32">
-        <v>25283914590</v>
+        <v>30144128845</v>
       </c>
       <c r="E32">
-        <v>1562.836794906534</v>
+        <v>1563.341015662552</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1853</v>
+        <v>1840</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1581,19 +1581,19 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>20624176997</v>
+        <v>80283750705</v>
       </c>
       <c r="D33">
-        <v>70326475292</v>
+        <v>81702531187</v>
       </c>
       <c r="E33">
-        <v>1615.694542336796</v>
+        <v>1616.213947874687</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1859</v>
+        <v>1837</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1607,19 +1607,19 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>41450447808</v>
+        <v>57741510675</v>
       </c>
       <c r="D34">
-        <v>20624176997</v>
+        <v>80283750705</v>
       </c>
       <c r="E34">
-        <v>1668.598204636247</v>
+        <v>1669.132697338606</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1815</v>
+        <v>1799</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1633,19 +1633,19 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>40094329239</v>
+        <v>39566358758</v>
       </c>
       <c r="D35">
-        <v>41450447808</v>
+        <v>57741510675</v>
       </c>
       <c r="E35">
-        <v>1721.547486635364</v>
+        <v>1722.14024391578</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>1851</v>
+        <v>1824</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1659,19 +1659,19 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>4127421795</v>
+        <v>48767114511</v>
       </c>
       <c r="D36">
-        <v>40094329239</v>
+        <v>39566358758</v>
       </c>
       <c r="E36">
-        <v>1774.542095062191</v>
+        <v>1722.956075091304</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1685,19 +1685,19 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>81023334503</v>
+        <v>61217008277</v>
       </c>
       <c r="D37">
-        <v>4127421795</v>
+        <v>48767114511</v>
       </c>
       <c r="E37">
-        <v>1827.581738530035</v>
+        <v>1724.025827397567</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>1780</v>
+        <v>1837</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1711,19 +1711,19 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>91563272446</v>
+        <v>9291732713</v>
       </c>
       <c r="D38">
-        <v>81023334503</v>
+        <v>61217008277</v>
       </c>
       <c r="E38">
-        <v>1880.6661275255</v>
+        <v>1725.474420213934</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>1884</v>
+        <v>1776</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1737,19 +1737,19 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>54338882360</v>
+        <v>32639614550</v>
       </c>
       <c r="D39">
-        <v>91563272446</v>
+        <v>9291732713</v>
       </c>
       <c r="E39">
-        <v>1933.794974396354</v>
+        <v>1727.29941811653</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>1853</v>
+        <v>1781</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1763,19 +1763,19 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>67105213417</v>
+        <v>75745767622</v>
       </c>
       <c r="D40">
-        <v>54338882360</v>
+        <v>32639614550</v>
       </c>
       <c r="E40">
-        <v>1986.967993339528</v>
+        <v>1729.498401337912</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>1788</v>
+        <v>1825</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1789,19 +1789,19 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>44153127152</v>
+        <v>71419206764</v>
       </c>
       <c r="D41">
-        <v>67105213417</v>
+        <v>75745767622</v>
       </c>
       <c r="E41">
-        <v>2040.184900389285</v>
+        <v>1732.068965666415</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>1825</v>
+        <v>1890</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1815,19 +1815,19 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>28793695069</v>
+        <v>89867317638</v>
       </c>
       <c r="D42">
-        <v>44153127152</v>
+        <v>71419206764</v>
       </c>
       <c r="E42">
-        <v>2093.445413405406</v>
+        <v>1735.00872234615</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>1872</v>
+        <v>1836</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1841,19 +1841,19 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>23388130161</v>
+        <v>96132631739</v>
       </c>
       <c r="D43">
-        <v>28793695069</v>
+        <v>89867317638</v>
       </c>
       <c r="E43">
-        <v>2146.749252061455</v>
+        <v>1738.315297977646</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>1782</v>
+        <v>1882</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1867,19 +1867,19 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>26634409986</v>
+        <v>3840586719</v>
       </c>
       <c r="D44">
-        <v>23388130161</v>
+        <v>96132631739</v>
       </c>
       <c r="E44">
-        <v>2200.096137833087</v>
+        <v>1741.986334419131</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1893,19 +1893,19 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>86877399130</v>
+        <v>19675208833</v>
       </c>
       <c r="D45">
-        <v>26634409986</v>
+        <v>3840586719</v>
       </c>
       <c r="E45">
-        <v>2253.485793986552</v>
+        <v>1746.019488688442</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>1785</v>
+        <v>1822</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -1919,19 +1919,19 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>13843812499</v>
+        <v>19718880214</v>
       </c>
       <c r="D46">
-        <v>86877399130</v>
+        <v>19675208833</v>
       </c>
       <c r="E46">
-        <v>2306.917945567066</v>
+        <v>1750.412432865573</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>1893</v>
+        <v>1825</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1945,19 +1945,19 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>80695587174</v>
+        <v>23460158133</v>
       </c>
       <c r="D47">
-        <v>13843812499</v>
+        <v>19718880214</v>
       </c>
       <c r="E47">
-        <v>2360.39231938742</v>
+        <v>1755.162853995842</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>1848</v>
+        <v>1836</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1971,19 +1971,19 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>25088993820</v>
+        <v>33535896755</v>
       </c>
       <c r="D48">
-        <v>80695587174</v>
+        <v>23460158133</v>
       </c>
       <c r="E48">
-        <v>2413.908644016613</v>
+        <v>1760.26845399369</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>1812</v>
+        <v>1866</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -1997,19 +1997,19 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>85003057786</v>
+        <v>40264913588</v>
       </c>
       <c r="D49">
-        <v>25088993820</v>
+        <v>33535896755</v>
       </c>
       <c r="E49">
-        <v>2467.466649768584</v>
+        <v>1765.72694954709</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>1867</v>
+        <v>1880</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2023,19 +2023,19 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>74463254385</v>
+        <v>92646624425</v>
       </c>
       <c r="D50">
-        <v>85003057786</v>
+        <v>40264913588</v>
       </c>
       <c r="E50">
-        <v>2521.066068691002</v>
+        <v>1771.536072022571</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>1825</v>
+        <v>1742</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2049,19 +2049,19 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>3749078377</v>
+        <v>69981321619</v>
       </c>
       <c r="D51">
-        <v>74463254385</v>
+        <v>92646624425</v>
       </c>
       <c r="E51">
-        <v>2574.706634554107</v>
+        <v>1777.69356737086</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>1883</v>
+        <v>1856</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2075,19 +2075,19 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>1672100732</v>
+        <v>63906212749</v>
       </c>
       <c r="D52">
-        <v>3749078377</v>
+        <v>69981321619</v>
       </c>
       <c r="E52">
-        <v>2628.38808283967</v>
+        <v>1784.197196033123</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>1869</v>
+        <v>1795</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2101,19 +2101,19 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>72824658895</v>
+        <v>97713859572</v>
       </c>
       <c r="D53">
-        <v>1672100732</v>
+        <v>63906212749</v>
       </c>
       <c r="E53">
-        <v>2682.110150729859</v>
+        <v>1791.044732847809</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53">
-        <v>1849</v>
+        <v>1863</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2127,19 +2127,19 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>72573163861</v>
+        <v>63699799530</v>
       </c>
       <c r="D54">
-        <v>72824658895</v>
+        <v>97713859572</v>
       </c>
       <c r="E54">
-        <v>2735.872577096468</v>
+        <v>1798.233966958103</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <v>1847</v>
+        <v>1840</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -2153,19 +2153,19 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>30998384159</v>
+        <v>5932529042</v>
       </c>
       <c r="D55">
-        <v>72573163861</v>
+        <v>63699799530</v>
       </c>
       <c r="E55">
-        <v>2789.675102489928</v>
+        <v>1805.762701719957</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <v>1841</v>
+        <v>1781</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -2179,19 +2179,19 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>29864028652</v>
+        <v>17383720136</v>
       </c>
       <c r="D56">
-        <v>30998384159</v>
+        <v>5932529042</v>
       </c>
       <c r="E56">
-        <v>2843.517469128576</v>
+        <v>1813.628754610726</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>1884</v>
+        <v>1889</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -2205,19 +2205,19 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>95671859107</v>
+        <v>37662804997</v>
       </c>
       <c r="D57">
-        <v>29864028652</v>
+        <v>17383720136</v>
       </c>
       <c r="E57">
-        <v>2897.399420887944</v>
+        <v>1821.829957138389</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -2231,19 +2231,19 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>97079114905</v>
+        <v>72389517202</v>
       </c>
       <c r="D58">
-        <v>95671859107</v>
+        <v>37662804997</v>
       </c>
       <c r="E58">
-        <v>2951.320703290133</v>
+        <v>1830.364154751345</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>1887</v>
+        <v>1855</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -2257,19 +2257,19 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>20912885717</v>
+        <v>36638514305</v>
       </c>
       <c r="D59">
-        <v>97079114905</v>
+        <v>72389517202</v>
       </c>
       <c r="E59">
-        <v>3005.281063493142</v>
+        <v>1839.229206748802</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>1856</v>
+        <v>1789</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -2283,19 +2283,19 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>9252056802</v>
+        <v>92191022661</v>
       </c>
       <c r="D60">
-        <v>20912885717</v>
+        <v>36638514305</v>
       </c>
       <c r="E60">
-        <v>3059.280250280407</v>
+        <v>1848.422986191732</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>1800</v>
+        <v>1863</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2309,19 +2309,19 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>69251157551</v>
+        <v>93516001897</v>
       </c>
       <c r="D61">
-        <v>9252056802</v>
+        <v>92191022661</v>
       </c>
       <c r="E61">
-        <v>3113.31801405032</v>
+        <v>1857.943379814399</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>1834</v>
+        <v>1755</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2335,19 +2335,19 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>4864602759</v>
+        <v>28845653150</v>
       </c>
       <c r="D62">
-        <v>69251157551</v>
+        <v>93516001897</v>
       </c>
       <c r="E62">
-        <v>3167.39410680591</v>
+        <v>1867.788287936467</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -2361,19 +2361,19 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>25467301007</v>
+        <v>3775070442</v>
       </c>
       <c r="D63">
-        <v>4864602759</v>
+        <v>28845653150</v>
       </c>
       <c r="E63">
-        <v>3221.508282144475</v>
+        <v>1877.955624375653</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>1853</v>
+        <v>1836</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -2387,19 +2387,19 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>14984426686</v>
+        <v>9705298247</v>
       </c>
       <c r="D64">
-        <v>25467301007</v>
+        <v>3775070442</v>
       </c>
       <c r="E64">
-        <v>3275.660295247326</v>
+        <v>1888.443316360964</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>1781</v>
+        <v>1798</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -2413,19 +2413,19 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>76500573588</v>
+        <v>90589853239</v>
       </c>
       <c r="D65">
-        <v>14984426686</v>
+        <v>9705298247</v>
       </c>
       <c r="E65">
-        <v>3329.849902869651</v>
+        <v>1899.249304446475</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -2439,19 +2439,19 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>16503040632</v>
+        <v>7557716569</v>
       </c>
       <c r="D66">
-        <v>76500573588</v>
+        <v>90589853239</v>
       </c>
       <c r="E66">
-        <v>3384.076863330335</v>
+        <v>1910.371542425666</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>1903</v>
+        <v>1821</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -2465,19 +2465,19 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>27363716140</v>
+        <v>2122482282</v>
       </c>
       <c r="D67">
-        <v>16503040632</v>
+        <v>7557716569</v>
       </c>
       <c r="E67">
-        <v>3438.340936501983</v>
+        <v>1921.807997246316</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G67">
-        <v>1793</v>
+        <v>1865</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -2491,19 +2491,19 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>60990639307</v>
+        <v>50965037948</v>
       </c>
       <c r="D68">
-        <v>27363716140</v>
+        <v>2122482282</v>
       </c>
       <c r="E68">
-        <v>3492.641883800843</v>
+        <v>1933.556648925934</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>1856</v>
+        <v>1785</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -2517,19 +2517,19 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>62087060200</v>
+        <v>30906085531</v>
       </c>
       <c r="D69">
-        <v>60990639307</v>
+        <v>50965037948</v>
       </c>
       <c r="E69">
-        <v>3546.979468176946</v>
+        <v>1945.61549046774</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>1732</v>
+        <v>1811</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -2543,19 +2543,19 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>90065293768</v>
+        <v>86775569586</v>
       </c>
       <c r="D70">
-        <v>62087060200</v>
+        <v>30906085531</v>
       </c>
       <c r="E70">
-        <v>3601.353454104222</v>
+        <v>1957.982527777187</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>1824</v>
+        <v>1903</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -2569,19 +2569,19 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>78260430794</v>
+        <v>34808064617</v>
       </c>
       <c r="D71">
-        <v>90065293768</v>
+        <v>86775569586</v>
       </c>
       <c r="E71">
-        <v>3655.763607570756</v>
+        <v>1970.655779579016</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>1812</v>
+        <v>1791</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -2595,19 +2595,19 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>39512087569</v>
+        <v>2459979888</v>
       </c>
       <c r="D72">
-        <v>78260430794</v>
+        <v>34808064617</v>
       </c>
       <c r="E72">
-        <v>3710.209696068956</v>
+        <v>1983.633277334843</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>1787</v>
+        <v>1843</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -2621,19 +2621,19 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>93464202189</v>
+        <v>77766663958</v>
       </c>
       <c r="D73">
-        <v>39512087569</v>
+        <v>2459979888</v>
       </c>
       <c r="E73">
-        <v>3764.691488585941</v>
+        <v>1996.913065161282</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G73">
-        <v>1792</v>
+        <v>1833</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -2647,19 +2647,19 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>18862948220</v>
+        <v>48431053796</v>
       </c>
       <c r="D74">
-        <v>93464202189</v>
+        <v>77766663958</v>
       </c>
       <c r="E74">
-        <v>3819.208755593956</v>
+        <v>2010.493199748589</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>1901</v>
+        <v>1832</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -2673,19 +2673,19 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>30593567234</v>
+        <v>1505257588</v>
       </c>
       <c r="D75">
-        <v>18862948220</v>
+        <v>48431053796</v>
       </c>
       <c r="E75">
-        <v>3873.761269040745</v>
+        <v>2024.371750279832</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>1907</v>
+        <v>1819</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -2699,19 +2699,19 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>22605050382</v>
+        <v>45749896162</v>
       </c>
       <c r="D76">
-        <v>30593567234</v>
+        <v>1505257588</v>
       </c>
       <c r="E76">
-        <v>3928.348802340186</v>
+        <v>2038.546798350577</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76">
-        <v>1827</v>
+        <v>1804</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -2725,19 +2725,19 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>29934610860</v>
+        <v>58404465359</v>
       </c>
       <c r="D77">
-        <v>22605050382</v>
+        <v>45749896162</v>
       </c>
       <c r="E77">
-        <v>3982.971130362776</v>
+        <v>2053.016437889095</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>1809</v>
+        <v>1822</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -2751,19 +2751,19 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>54247262199</v>
+        <v>98729496134</v>
       </c>
       <c r="D78">
-        <v>29934610860</v>
+        <v>58404465359</v>
       </c>
       <c r="E78">
-        <v>4037.628029426283</v>
+        <v>2067.77877507708</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>1809</v>
+        <v>1814</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -2777,19 +2777,19 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>97028500873</v>
+        <v>10233354234</v>
       </c>
       <c r="D79">
-        <v>54247262199</v>
+        <v>98729496134</v>
       </c>
       <c r="E79">
-        <v>4092.319277286363</v>
+        <v>2082.831928270873</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>1808</v>
+        <v>1864</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -2803,19 +2803,19 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>14878768798</v>
+        <v>57493533623</v>
       </c>
       <c r="D80">
-        <v>97028500873</v>
+        <v>10233354234</v>
       </c>
       <c r="E80">
-        <v>4147.044653127457</v>
+        <v>2098.1740279232</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>1841</v>
+        <v>1889</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -2829,19 +2829,19 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>64838034261</v>
+        <v>84669543380</v>
       </c>
       <c r="D81">
-        <v>14878768798</v>
+        <v>57493533623</v>
       </c>
       <c r="E81">
-        <v>4201.80393755354</v>
+        <v>2113.803216505405</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>1809</v>
+        <v>1821</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -2855,19 +2855,19 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>23599710162</v>
+        <v>60112292710</v>
       </c>
       <c r="D82">
-        <v>64838034261</v>
+        <v>84669543380</v>
       </c>
       <c r="E82">
-        <v>4256.596912578982</v>
+        <v>2129.71764843019</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G82">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -2881,19 +2881,19 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>74826244951</v>
+        <v>48644178686</v>
       </c>
       <c r="D83">
-        <v>23599710162</v>
+        <v>60112292710</v>
       </c>
       <c r="E83">
-        <v>4311.423361619552</v>
+        <v>2145.915489974847</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>1825</v>
+        <v>1810</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -2907,19 +2907,19 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>92601592388</v>
+        <v>21062356958</v>
       </c>
       <c r="D84">
-        <v>74826244951</v>
+        <v>48644178686</v>
       </c>
       <c r="E84">
-        <v>4366.283069483335</v>
+        <v>2162.394919204984</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>1891</v>
+        <v>1794</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -2933,19 +2933,19 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>69114302465</v>
+        <v>5017317543</v>
       </c>
       <c r="D85">
-        <v>92601592388</v>
+        <v>21062356958</v>
       </c>
       <c r="E85">
-        <v>4421.175822361798</v>
+        <v>2179.154125898744</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -2959,19 +2959,19 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>98776447472</v>
+        <v>29656197743</v>
       </c>
       <c r="D86">
-        <v>69114302465</v>
+        <v>5017317543</v>
       </c>
       <c r="E86">
-        <v>4476.101407820895</v>
+        <v>2196.19131147151</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -2985,19 +2985,19 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>19115900663</v>
+        <v>85917116994</v>
       </c>
       <c r="D87">
-        <v>98776447472</v>
+        <v>29656197743</v>
       </c>
       <c r="E87">
-        <v>4531.059614792251</v>
+        <v>2213.504688901091</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>1784</v>
+        <v>1827</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -3011,19 +3011,19 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>14901897865</v>
+        <v>65196873821</v>
       </c>
       <c r="D88">
-        <v>19115900663</v>
+        <v>85917116994</v>
       </c>
       <c r="E88">
-        <v>4586.05023356436</v>
+        <v>2231.092482653392</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>1834</v>
+        <v>1891</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -3037,19 +3037,19 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>15828413112</v>
+        <v>81405957286</v>
       </c>
       <c r="D89">
-        <v>14901897865</v>
+        <v>65196873821</v>
       </c>
       <c r="E89">
-        <v>4641.073055773903</v>
+        <v>2248.952928608566</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G89">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -3063,19 +3063,19 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>33175138536</v>
+        <v>31290575679</v>
       </c>
       <c r="D90">
-        <v>15828413112</v>
+        <v>81405957286</v>
       </c>
       <c r="E90">
-        <v>4696.127874397033</v>
+        <v>2267.084273987629</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>1834</v>
+        <v>1741</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -3089,19 +3089,19 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>8161985847</v>
+        <v>90282969003</v>
       </c>
       <c r="D91">
-        <v>33175138536</v>
+        <v>31290575679</v>
       </c>
       <c r="E91">
-        <v>4751.214483740744</v>
+        <v>2285.484777279559</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91">
-        <v>1841</v>
+        <v>1852</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -3115,19 +3115,19 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>4375570021</v>
+        <v>9378720164</v>
       </c>
       <c r="D92">
-        <v>8161985847</v>
+        <v>90282969003</v>
       </c>
       <c r="E92">
-        <v>4806.332679434429</v>
+        <v>2304.152708168855</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>1848</v>
+        <v>1870</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -3141,19 +3141,19 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>55688164798</v>
+        <v>65586702864</v>
       </c>
       <c r="D93">
-        <v>4375570021</v>
+        <v>9378720164</v>
       </c>
       <c r="E93">
-        <v>4861.482258421251</v>
+        <v>2323.086347463568</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>1766</v>
+        <v>1795</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -3167,19 +3167,19 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>48314919500</v>
+        <v>36791610459</v>
       </c>
       <c r="D94">
-        <v>55688164798</v>
+        <v>65586702864</v>
       </c>
       <c r="E94">
-        <v>4916.663018949804</v>
+        <v>2342.28398702379</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>1840</v>
+        <v>1815</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -3193,19 +3193,19 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>29208225982</v>
+        <v>8358780734</v>
       </c>
       <c r="D95">
-        <v>48314919500</v>
+        <v>36791610459</v>
       </c>
       <c r="E95">
-        <v>4971.874760565588</v>
+        <v>2361.743929690606</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95">
-        <v>1771</v>
+        <v>1838</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -3219,19 +3219,19 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>8439843963</v>
+        <v>5217376609</v>
       </c>
       <c r="D96">
-        <v>29208225982</v>
+        <v>8358780734</v>
       </c>
       <c r="E96">
-        <v>5027.117284102781</v>
+        <v>2381.464489215502</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>1774</v>
+        <v>1933</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -3245,19 +3245,19 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>50305870567</v>
+        <v>75639375039</v>
       </c>
       <c r="D97">
-        <v>8439843963</v>
+        <v>5217376609</v>
       </c>
       <c r="E97">
-        <v>5082.390391675925</v>
+        <v>2401.44399019022</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>1847</v>
+        <v>1831</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -3271,19 +3271,19 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>52457753579</v>
+        <v>32966660530</v>
       </c>
       <c r="D98">
-        <v>50305870567</v>
+        <v>75639375039</v>
       </c>
       <c r="E98">
-        <v>5137.693886671719</v>
+        <v>2421.68076797708</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98">
-        <v>1896</v>
+        <v>1801</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -3297,19 +3297,19 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>5938096895</v>
+        <v>92987075776</v>
       </c>
       <c r="D99">
-        <v>52457753579</v>
+        <v>32966660530</v>
       </c>
       <c r="E99">
-        <v>5193.027573740778</v>
+        <v>2442.173168639731</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>1818</v>
+        <v>1824</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -3323,19 +3323,19 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>92324559286</v>
+        <v>9158568900</v>
       </c>
       <c r="D100">
-        <v>5938096895</v>
+        <v>92987075776</v>
       </c>
       <c r="E100">
-        <v>5248.39125878958</v>
+        <v>2462.919548874362</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>1917</v>
+        <v>1841</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -3349,19 +3349,19 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>50832931726</v>
+        <v>80029146882</v>
       </c>
       <c r="D101">
-        <v>92324559286</v>
+        <v>9158568900</v>
       </c>
       <c r="E101">
-        <v>5303.784748972325</v>
+        <v>2483.918275941347</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G101">
-        <v>1855</v>
+        <v>1754</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -3375,19 +3375,19 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>86423359426</v>
+        <v>70157138404</v>
       </c>
       <c r="D102">
-        <v>50832931726</v>
+        <v>80029146882</v>
       </c>
       <c r="E102">
-        <v>5359.207852682941</v>
+        <v>2505.16772759733</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -3401,19 +3401,19 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>68141436015</v>
+        <v>42216628477</v>
       </c>
       <c r="D103">
-        <v>86423359426</v>
+        <v>70157138404</v>
       </c>
       <c r="E103">
-        <v>5414.660379547158</v>
+        <v>2526.666292027754</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>1830</v>
+        <v>1788</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -3427,19 +3427,19 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>79868478569</v>
+        <v>4123274896</v>
       </c>
       <c r="D104">
-        <v>68141436015</v>
+        <v>42216628477</v>
       </c>
       <c r="E104">
-        <v>5470.142140414544</v>
+        <v>2548.412367779812</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>1875</v>
+        <v>1810</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -3453,19 +3453,19 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>28952339084</v>
+        <v>45155046964</v>
       </c>
       <c r="D105">
-        <v>79868478569</v>
+        <v>4123274896</v>
       </c>
       <c r="E105">
-        <v>5525.652947350623</v>
+        <v>2570.404363695839</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -3479,19 +3479,19 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>64493901100</v>
+        <v>56271552616</v>
       </c>
       <c r="D106">
-        <v>28952339084</v>
+        <v>45155046964</v>
       </c>
       <c r="E106">
-        <v>5581.192613629074</v>
+        <v>2592.640698847126</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G106">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -3505,19 +3505,19 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>43009829241</v>
+        <v>25351408627</v>
       </c>
       <c r="D107">
-        <v>64493901100</v>
+        <v>56271552616</v>
       </c>
       <c r="E107">
-        <v>5636.760953724022</v>
+        <v>2615.119802468164</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G107">
-        <v>1855</v>
+        <v>1800</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -3531,19 +3531,19 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>66041588593</v>
+        <v>47116324115</v>
       </c>
       <c r="D108">
-        <v>43009829241</v>
+        <v>25351408627</v>
       </c>
       <c r="E108">
-        <v>5692.357783302176</v>
+        <v>2637.840113891308</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>1888</v>
+        <v>1864</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -3557,19 +3557,19 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>97844568820</v>
+        <v>52472072532</v>
       </c>
       <c r="D109">
-        <v>66041588593</v>
+        <v>47116324115</v>
       </c>
       <c r="E109">
-        <v>5747.982919215347</v>
+        <v>2660.80008248186</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>1815</v>
+        <v>1770</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -3583,19 +3583,19 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>67982455797</v>
+        <v>46827977913</v>
       </c>
       <c r="D110">
-        <v>97844568820</v>
+        <v>52472072532</v>
       </c>
       <c r="E110">
-        <v>5803.636179492692</v>
+        <v>2683.998167573573</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>1871</v>
+        <v>1811</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -3609,19 +3609,19 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>86872315087</v>
+        <v>89776511952</v>
       </c>
       <c r="D111">
-        <v>67982455797</v>
+        <v>46827977913</v>
       </c>
       <c r="E111">
-        <v>5859.317383333179</v>
+        <v>2707.432838404568</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>1855</v>
+        <v>1801</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -3635,19 +3635,19 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>97768712146</v>
+        <v>26265630881</v>
       </c>
       <c r="D112">
-        <v>86872315087</v>
+        <v>89776511952</v>
       </c>
       <c r="E112">
-        <v>5915.026351098112</v>
+        <v>2731.102574053659</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G112">
-        <v>1857</v>
+        <v>1825</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -3661,19 +3661,19 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>74180793425</v>
+        <v>17034487471</v>
       </c>
       <c r="D113">
-        <v>97768712146</v>
+        <v>26265630881</v>
       </c>
       <c r="E113">
-        <v>5970.762904303622</v>
+        <v>2755.005863377094</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G113">
-        <v>1818</v>
+        <v>1823</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -3687,19 +3687,19 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>15411397628</v>
+        <v>47215306095</v>
       </c>
       <c r="D114">
-        <v>74180793425</v>
+        <v>17034487471</v>
       </c>
       <c r="E114">
-        <v>6026.526865613222</v>
+        <v>2779.141204945699</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>1866</v>
+        <v>1875</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -3713,19 +3713,19 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>67342660728</v>
+        <v>55233882672</v>
       </c>
       <c r="D115">
-        <v>15411397628</v>
+        <v>47215306095</v>
       </c>
       <c r="E115">
-        <v>6082.318058830471</v>
+        <v>2803.507106982427</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G115">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -3739,19 +3739,19 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>67452583390</v>
+        <v>94006045099</v>
       </c>
       <c r="D116">
-        <v>67342660728</v>
+        <v>55233882672</v>
       </c>
       <c r="E116">
-        <v>6138.136308891614</v>
+        <v>2828.102087300306</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>1840</v>
+        <v>1891</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -3765,19 +3765,19 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>39171015233</v>
+        <v>37911141656</v>
       </c>
       <c r="D117">
-        <v>67452583390</v>
+        <v>94006045099</v>
       </c>
       <c r="E117">
-        <v>6193.981441858327</v>
+        <v>2852.92467324079</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -3791,19 +3791,19 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>6650541712</v>
+        <v>34266939656</v>
       </c>
       <c r="D118">
-        <v>39171015233</v>
+        <v>37911141656</v>
       </c>
       <c r="E118">
-        <v>6249.853284910459</v>
+        <v>2877.973401612503</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G118">
-        <v>1837</v>
+        <v>1898</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -3817,19 +3817,19 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>56780696768</v>
+        <v>5926645105</v>
       </c>
       <c r="D119">
-        <v>6650541712</v>
+        <v>34266939656</v>
       </c>
       <c r="E119">
-        <v>6305.751666338878</v>
+        <v>2903.246818630381</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <v>1852</v>
+        <v>1877</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -3843,19 +3843,19 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>38181863566</v>
+        <v>75592302613</v>
       </c>
       <c r="D120">
-        <v>56780696768</v>
+        <v>5926645105</v>
       </c>
       <c r="E120">
-        <v>6361.676415538306</v>
+        <v>2928.743479855198</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>1867</v>
+        <v>1844</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -3869,19 +3869,19 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>99587748011</v>
+        <v>50386472344</v>
       </c>
       <c r="D121">
-        <v>38181863566</v>
+        <v>75592302613</v>
       </c>
       <c r="E121">
-        <v>6417.627363000184</v>
+        <v>2954.461950133487</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G121">
-        <v>1861</v>
+        <v>1818</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -3895,19 +3895,19 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>78651785363</v>
+        <v>54255344327</v>
       </c>
       <c r="D122">
-        <v>99587748011</v>
+        <v>50386472344</v>
       </c>
       <c r="E122">
-        <v>6473.604340305689</v>
+        <v>2980.400803537847</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G122">
-        <v>1859</v>
+        <v>1781</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -3921,19 +3921,19 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>41258273595</v>
+        <v>90780825536</v>
       </c>
       <c r="D123">
-        <v>78651785363</v>
+        <v>54255344327</v>
       </c>
       <c r="E123">
-        <v>6529.607180118754</v>
+        <v>3006.558623307631</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G123">
-        <v>1862</v>
+        <v>1817</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -3947,19 +3947,19 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>60669829436</v>
+        <v>16281443857</v>
       </c>
       <c r="D124">
-        <v>41258273595</v>
+        <v>90780825536</v>
       </c>
       <c r="E124">
-        <v>6585.635716178941</v>
+        <v>3032.934001790015</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G124">
-        <v>1807</v>
+        <v>1841</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -3973,19 +3973,19 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>42636520175</v>
+        <v>25205197910</v>
       </c>
       <c r="D125">
-        <v>60669829436</v>
+        <v>16281443857</v>
       </c>
       <c r="E125">
-        <v>6641.689783294702</v>
+        <v>3059.525540381449</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G125">
-        <v>1900</v>
+        <v>1847</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -3999,19 +3999,19 @@
         <v>124</v>
       </c>
       <c r="C126">
-        <v>31833024587</v>
+        <v>44241839592</v>
       </c>
       <c r="D126">
-        <v>42636520175</v>
+        <v>25205197910</v>
       </c>
       <c r="E126">
-        <v>6697.769217336413</v>
+        <v>3086.331849469479</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G126">
-        <v>1814</v>
+        <v>1893</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -4025,19 +4025,19 @@
         <v>125</v>
       </c>
       <c r="C127">
-        <v>37229864430</v>
+        <v>51374137047</v>
       </c>
       <c r="D127">
-        <v>31833024587</v>
+        <v>44241839592</v>
       </c>
       <c r="E127">
-        <v>6753.873855229612</v>
+        <v>3113.351548374954</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G127">
-        <v>1797</v>
+        <v>1838</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -4051,19 +4051,19 @@
         <v>126</v>
       </c>
       <c r="C128">
-        <v>74890171254</v>
+        <v>79965167765</v>
       </c>
       <c r="D128">
-        <v>37229864430</v>
+        <v>51374137047</v>
       </c>
       <c r="E128">
-        <v>6810.00353494817</v>
+        <v>3140.583265294589</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G128">
-        <v>1887</v>
+        <v>1772</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -4077,19 +4077,19 @@
         <v>127</v>
       </c>
       <c r="C129">
-        <v>48315222965</v>
+        <v>93296309113</v>
       </c>
       <c r="D129">
-        <v>74890171254</v>
+        <v>79965167765</v>
       </c>
       <c r="E129">
-        <v>6866.158095507612</v>
+        <v>3168.025637243911</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>1761</v>
+        <v>1861</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -4103,19 +4103,19 @@
         <v>128</v>
       </c>
       <c r="C130">
-        <v>78529594978</v>
+        <v>87313130711</v>
       </c>
       <c r="D130">
-        <v>48315222965</v>
+        <v>93296309113</v>
       </c>
       <c r="E130">
-        <v>6922.337376958275</v>
+        <v>3195.677310000564</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G130">
-        <v>1693</v>
+        <v>1885</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -4129,19 +4129,19 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <v>66051174472</v>
+        <v>66602076517</v>
       </c>
       <c r="D131">
-        <v>78529594978</v>
+        <v>87313130711</v>
       </c>
       <c r="E131">
-        <v>6978.541220378802</v>
+        <v>3223.536938047979</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>1783</v>
+        <v>1822</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -4155,19 +4155,19 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <v>41574067040</v>
+        <v>84752723252</v>
       </c>
       <c r="D132">
-        <v>66051174472</v>
+        <v>66602076517</v>
       </c>
       <c r="E132">
-        <v>7034.769467869489</v>
+        <v>3251.603184519412</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G132">
-        <v>1764</v>
+        <v>1860</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -4181,19 +4181,19 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <v>6188936895</v>
+        <v>12988505130</v>
       </c>
       <c r="D133">
-        <v>41574067040</v>
+        <v>84752723252</v>
       </c>
       <c r="E133">
-        <v>7091.021962545698</v>
+        <v>3279.874721142333</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G133">
-        <v>1857</v>
+        <v>1894</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -4207,19 +4207,19 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <v>40660754707</v>
+        <v>12723161088</v>
       </c>
       <c r="D134">
-        <v>6188936895</v>
+        <v>12988505130</v>
       </c>
       <c r="E134">
-        <v>7147.298548531341</v>
+        <v>3308.35022818318</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G134">
-        <v>1895</v>
+        <v>1791</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -4233,19 +4233,19 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <v>88277279587</v>
+        <v>21997128324</v>
       </c>
       <c r="D135">
-        <v>40660754707</v>
+        <v>12723161088</v>
       </c>
       <c r="E135">
-        <v>7203.599070952407</v>
+        <v>3337.028394392464</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G135">
-        <v>1863</v>
+        <v>1817</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -4259,19 +4259,19 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <v>32261238459</v>
+        <v>86012750579</v>
       </c>
       <c r="D136">
-        <v>88277279587</v>
+        <v>21997128324</v>
       </c>
       <c r="E136">
-        <v>7259.923375930492</v>
+        <v>3365.907916950228</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G136">
-        <v>1897</v>
+        <v>1858</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -4285,19 +4285,19 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <v>3196849553</v>
+        <v>7641518292</v>
       </c>
       <c r="D137">
-        <v>32261238459</v>
+        <v>86012750579</v>
       </c>
       <c r="E137">
-        <v>7316.271310576456</v>
+        <v>3394.987501411857</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G137">
-        <v>1824</v>
+        <v>1790</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -4311,19 +4311,19 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <v>84265106130</v>
+        <v>589594031</v>
       </c>
       <c r="D138">
-        <v>3196849553</v>
+        <v>7641518292</v>
       </c>
       <c r="E138">
-        <v>7372.642722984002</v>
+        <v>3424.265861654238</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G138">
-        <v>1793</v>
+        <v>1863</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -4337,19 +4337,19 @@
         <v>137</v>
       </c>
       <c r="C139">
-        <v>59246141233</v>
+        <v>62797720051</v>
       </c>
       <c r="D139">
-        <v>84265106130</v>
+        <v>589594031</v>
       </c>
       <c r="E139">
-        <v>7429.037462223365</v>
+        <v>3453.741719822259</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G139">
-        <v>1846</v>
+        <v>1860</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -4363,19 +4363,19 @@
         <v>138</v>
       </c>
       <c r="C140">
-        <v>52415284151</v>
+        <v>78702278709</v>
       </c>
       <c r="D140">
-        <v>59246141233</v>
+        <v>62797720051</v>
       </c>
       <c r="E140">
-        <v>7485.455378335091</v>
+        <v>3483.413806275663</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G140">
-        <v>1862</v>
+        <v>1786</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -4389,19 +4389,19 @@
         <v>139</v>
       </c>
       <c r="C141">
-        <v>79766821798</v>
+        <v>94482117380</v>
       </c>
       <c r="D141">
-        <v>52415284151</v>
+        <v>78702278709</v>
       </c>
       <c r="E141">
-        <v>7541.896322323745</v>
+        <v>3513.280859536233</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G141">
-        <v>1814</v>
+        <v>1884</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -4415,19 +4415,19 @@
         <v>140</v>
       </c>
       <c r="C142">
-        <v>73649924477</v>
+        <v>41356587304</v>
       </c>
       <c r="D142">
-        <v>79766821798</v>
+        <v>94482117380</v>
       </c>
       <c r="E142">
-        <v>7598.360146151701</v>
+        <v>3543.341626235324</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G142">
-        <v>1846</v>
+        <v>1762</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -4441,19 +4441,19 @@
         <v>141</v>
       </c>
       <c r="C143">
-        <v>44152445410</v>
+        <v>37004643912</v>
       </c>
       <c r="D143">
-        <v>73649924477</v>
+        <v>41356587304</v>
       </c>
       <c r="E143">
-        <v>7654.846702733057</v>
+        <v>3573.594861061731</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G143">
-        <v>1809</v>
+        <v>1879</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -4467,19 +4467,19 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <v>41741117535</v>
+        <v>32493633330</v>
       </c>
       <c r="D144">
-        <v>44152445410</v>
+        <v>37004643912</v>
       </c>
       <c r="E144">
-        <v>7711.355845927435</v>
+        <v>3604.039326709885</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G144">
-        <v>1863</v>
+        <v>1800</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -4493,19 +4493,19 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <v>12294287003</v>
+        <v>51802621575</v>
       </c>
       <c r="D145">
-        <v>41741117535</v>
+        <v>32493633330</v>
       </c>
       <c r="E145">
-        <v>7767.88743053396</v>
+        <v>3634.673793828395</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G145">
-        <v>1752</v>
+        <v>1873</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -4519,19 +4519,19 @@
         <v>144</v>
       </c>
       <c r="C146">
-        <v>94667946356</v>
+        <v>86485129868</v>
       </c>
       <c r="D146">
-        <v>12294287003</v>
+        <v>51802621575</v>
       </c>
       <c r="E146">
-        <v>7824.441312285187</v>
+        <v>3665.497040968909</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G146">
-        <v>1843</v>
+        <v>1756</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -4545,19 +4545,19 @@
         <v>145</v>
       </c>
       <c r="C147">
-        <v>68471977975</v>
+        <v>42493764744</v>
       </c>
       <c r="D147">
-        <v>94667946356</v>
+        <v>86485129868</v>
       </c>
       <c r="E147">
-        <v>7881.017347841137</v>
+        <v>3696.507854535308</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G147">
-        <v>1820</v>
+        <v>1886</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -4571,19 +4571,19 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <v>50521926141</v>
+        <v>64781475154</v>
       </c>
       <c r="D148">
-        <v>68471977975</v>
+        <v>42493764744</v>
       </c>
       <c r="E148">
-        <v>7937.61539478328</v>
+        <v>3727.70502873323</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G148">
-        <v>1804</v>
+        <v>1843</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -4597,19 +4597,19 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <v>71048872594</v>
+        <v>5617579686</v>
       </c>
       <c r="D149">
-        <v>50521926141</v>
+        <v>64781475154</v>
       </c>
       <c r="E149">
-        <v>7994.235311608633</v>
+        <v>3759.087365519913</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G149">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -4623,19 +4623,19 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <v>12246304515</v>
+        <v>89819610064</v>
       </c>
       <c r="D150">
-        <v>71048872594</v>
+        <v>5617579686</v>
       </c>
       <c r="E150">
-        <v>8050.8769577239</v>
+        <v>3790.653674554362</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G150">
-        <v>1848</v>
+        <v>1871</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -4649,19 +4649,19 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <v>55169704455</v>
+        <v>27263554874</v>
       </c>
       <c r="D151">
-        <v>12246304515</v>
+        <v>89819610064</v>
       </c>
       <c r="E151">
-        <v>8107.540193439596</v>
+        <v>3822.402773147843</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G151">
-        <v>1853</v>
+        <v>1783</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -4675,19 +4675,19 @@
         <v>150</v>
       </c>
       <c r="C152">
-        <v>21813330312</v>
+        <v>29618972247</v>
       </c>
       <c r="D152">
-        <v>55169704455</v>
+        <v>27263554874</v>
       </c>
       <c r="E152">
-        <v>8164.224879964287</v>
+        <v>3854.333486214681</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G152">
-        <v>1810</v>
+        <v>1817</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -4701,19 +4701,19 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <v>32554906814</v>
+        <v>79970865923</v>
       </c>
       <c r="D153">
-        <v>21813330312</v>
+        <v>29618972247</v>
       </c>
       <c r="E153">
-        <v>8220.930879398737</v>
+        <v>3886.444646223389</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G153">
-        <v>1830</v>
+        <v>1852</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -4727,19 +4727,19 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <v>77481302791</v>
+        <v>13306206270</v>
       </c>
       <c r="D154">
-        <v>32554906814</v>
+        <v>79970865923</v>
       </c>
       <c r="E154">
-        <v>8277.658054730231</v>
+        <v>3918.735093148104</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G154">
-        <v>1874</v>
+        <v>1881</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -4753,19 +4753,19 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <v>52746619527</v>
+        <v>8512952605</v>
       </c>
       <c r="D155">
-        <v>77481302791</v>
+        <v>13306206270</v>
       </c>
       <c r="E155">
-        <v>8334.406269826844</v>
+        <v>3951.203674420333</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G155">
-        <v>1815</v>
+        <v>1772</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -4779,19 +4779,19 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <v>78814879205</v>
+        <v>18593436726</v>
       </c>
       <c r="D156">
-        <v>52746619527</v>
+        <v>8512952605</v>
       </c>
       <c r="E156">
-        <v>8391.175389431788</v>
+        <v>3983.849244881016</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G156">
-        <v>1798</v>
+        <v>1823</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -4805,19 +4805,19 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <v>40634236040</v>
+        <v>29000751051</v>
       </c>
       <c r="D157">
-        <v>78814879205</v>
+        <v>18593436726</v>
       </c>
       <c r="E157">
-        <v>8447.965279157816</v>
+        <v>4016.670666732891</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G157">
-        <v>1924</v>
+        <v>1898</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -4831,19 +4831,19 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <v>2458512053</v>
+        <v>36383602478</v>
       </c>
       <c r="D158">
-        <v>40634236040</v>
+        <v>29000751051</v>
       </c>
       <c r="E158">
-        <v>8504.7758054816</v>
+        <v>4049.666809493171</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G158">
-        <v>1834</v>
+        <v>1857</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -4857,19 +4857,19 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <v>57605411181</v>
+        <v>93035550046</v>
       </c>
       <c r="D159">
-        <v>2458512053</v>
+        <v>36383602478</v>
       </c>
       <c r="E159">
-        <v>8561.606835738154</v>
+        <v>4082.836549946517</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G159">
-        <v>1806</v>
+        <v>1887</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -4883,19 +4883,19 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <v>40075978717</v>
+        <v>95394487146</v>
       </c>
       <c r="D160">
-        <v>57605411181</v>
+        <v>93035550046</v>
       </c>
       <c r="E160">
-        <v>8618.458238115381</v>
+        <v>4116.178772098323</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G160">
-        <v>1852</v>
+        <v>1721</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -4909,19 +4909,19 @@
         <v>159</v>
       </c>
       <c r="C161">
-        <v>94335652478</v>
+        <v>42193730985</v>
       </c>
       <c r="D161">
-        <v>40075978717</v>
+        <v>95394487146</v>
       </c>
       <c r="E161">
-        <v>8675.329881648528</v>
+        <v>4149.692367128293</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G161">
-        <v>1813</v>
+        <v>1862</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -4935,19 +4935,19 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <v>83978843078</v>
+        <v>78170701837</v>
       </c>
       <c r="D162">
-        <v>94335652478</v>
+        <v>42193730985</v>
       </c>
       <c r="E162">
-        <v>8732.221636214785</v>
+        <v>4183.376233344324</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G162">
-        <v>1787</v>
+        <v>1811</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -4961,19 +4961,19 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <v>44176704532</v>
+        <v>65519993664</v>
       </c>
       <c r="D163">
-        <v>83978843078</v>
+        <v>78170701837</v>
       </c>
       <c r="E163">
-        <v>8789.133372527845</v>
+        <v>4217.229276136677</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G163">
-        <v>1803</v>
+        <v>1892</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -4987,19 +4987,19 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <v>9755588248</v>
+        <v>26153207601</v>
       </c>
       <c r="D164">
-        <v>44176704532</v>
+        <v>65519993664</v>
       </c>
       <c r="E164">
-        <v>8846.064962132541</v>
+        <v>4251.250407932452</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G164">
-        <v>1798</v>
+        <v>1846</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -5013,19 +5013,19 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <v>31810164258</v>
+        <v>58936330289</v>
       </c>
       <c r="D165">
-        <v>9755588248</v>
+        <v>26153207601</v>
       </c>
       <c r="E165">
-        <v>8903.016277399491</v>
+        <v>4285.438548150345</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G165">
-        <v>1855</v>
+        <v>1823</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -5039,19 +5039,19 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <v>91488934311</v>
+        <v>66122723984</v>
       </c>
       <c r="D166">
-        <v>31810164258</v>
+        <v>58936330289</v>
       </c>
       <c r="E166">
-        <v>8959.987191519791</v>
+        <v>4319.792623155708</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G166">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -5065,19 +5065,19 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <v>56808021949</v>
+        <v>1365667999</v>
       </c>
       <c r="D167">
-        <v>91488934311</v>
+        <v>66122723984</v>
       </c>
       <c r="E167">
-        <v>9016.977578499742</v>
+        <v>4354.311566215885</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G167">
-        <v>1815</v>
+        <v>1830</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -5091,19 +5091,19 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <v>27144099334</v>
+        <v>40626398008</v>
       </c>
       <c r="D168">
-        <v>56808021949</v>
+        <v>1365667999</v>
       </c>
       <c r="E168">
-        <v>9073.987313155609</v>
+        <v>4388.994317455849</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G168">
-        <v>1821</v>
+        <v>1884</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -5117,19 +5117,19 @@
         <v>167</v>
       </c>
       <c r="C169">
-        <v>52731574635</v>
+        <v>39704229540</v>
       </c>
       <c r="D169">
-        <v>27144099334</v>
+        <v>40626398008</v>
       </c>
       <c r="E169">
-        <v>9131.016271108432</v>
+        <v>4423.839823814111</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G169">
-        <v>1774</v>
+        <v>1870</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -5143,19 +5143,19 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>76204496344</v>
+        <v>92806322530</v>
       </c>
       <c r="D170">
-        <v>52731574635</v>
+        <v>39704229540</v>
       </c>
       <c r="E170">
-        <v>9188.064328778824</v>
+        <v>4458.847038998918</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G170">
-        <v>1865</v>
+        <v>1875</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -5169,19 +5169,19 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <v>70080912172</v>
+        <v>43462574609</v>
       </c>
       <c r="D171">
-        <v>76204496344</v>
+        <v>92806322530</v>
       </c>
       <c r="E171">
-        <v>9245.131363381844</v>
+        <v>4494.014923444739</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G171">
-        <v>1854</v>
+        <v>1797</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -5195,19 +5195,19 @@
         <v>170</v>
       </c>
       <c r="C172">
-        <v>36734062148</v>
+        <v>70008433819</v>
       </c>
       <c r="D172">
-        <v>70080912172</v>
+        <v>43462574609</v>
       </c>
       <c r="E172">
-        <v>9302.21725292191</v>
+        <v>4529.342444269018</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G172">
-        <v>1866</v>
+        <v>1827</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -5221,19 +5221,19 @@
         <v>171</v>
       </c>
       <c r="C173">
-        <v>17835778938</v>
+        <v>20876792752</v>
       </c>
       <c r="D173">
-        <v>36734062148</v>
+        <v>70008433819</v>
       </c>
       <c r="E173">
-        <v>9359.321876187671</v>
+        <v>4564.828575229217</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G173">
-        <v>1754</v>
+        <v>1950</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -5247,19 +5247,19 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>49725427816</v>
+        <v>4489045780</v>
       </c>
       <c r="D174">
-        <v>17835778938</v>
+        <v>20876792752</v>
       </c>
       <c r="E174">
-        <v>9416.445112747009</v>
+        <v>4600.472296680124</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G174">
-        <v>1792</v>
+        <v>1851</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -5273,19 +5273,19 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>77412989152</v>
+        <v>31198886656</v>
       </c>
       <c r="D175">
-        <v>49725427816</v>
+        <v>4489045780</v>
       </c>
       <c r="E175">
-        <v>9473.586842942053</v>
+        <v>4636.272595531447</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G175">
-        <v>1833</v>
+        <v>1849</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -5299,19 +5299,19 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>53481269366</v>
+        <v>92972935662</v>
       </c>
       <c r="D176">
-        <v>77412989152</v>
+        <v>31198886656</v>
       </c>
       <c r="E176">
-        <v>9530.746947884147</v>
+        <v>4672.228465205672</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G176">
-        <v>1818</v>
+        <v>1880</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -5325,19 +5325,19 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>7929987953</v>
+        <v>82686542829</v>
       </c>
       <c r="D177">
-        <v>53481269366</v>
+        <v>92972935662</v>
       </c>
       <c r="E177">
-        <v>9587.925309448916</v>
+        <v>4708.338905596195</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G177">
-        <v>1911</v>
+        <v>1780</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -5351,19 +5351,19 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>9876919920</v>
+        <v>57225838017</v>
       </c>
       <c r="D178">
-        <v>7929987953</v>
+        <v>82686542829</v>
       </c>
       <c r="E178">
-        <v>9645.121810271357</v>
+        <v>4744.602923025723</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G178">
-        <v>1794</v>
+        <v>1867</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -5377,19 +5377,19 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <v>5351718086</v>
+        <v>8847692320</v>
       </c>
       <c r="D179">
-        <v>9876919920</v>
+        <v>57225838017</v>
       </c>
       <c r="E179">
-        <v>9702.336333740959</v>
+        <v>4781.019530204941</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G179">
-        <v>1814</v>
+        <v>1830</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -5403,19 +5403,19 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>24697072180</v>
+        <v>74265700340</v>
       </c>
       <c r="D180">
-        <v>5351718086</v>
+        <v>8847692320</v>
       </c>
       <c r="E180">
-        <v>9759.568763996866</v>
+        <v>4817.58774619145</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G180">
-        <v>1763</v>
+        <v>1809</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -5429,19 +5429,19 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>85812788074</v>
+        <v>63102608961</v>
       </c>
       <c r="D181">
-        <v>24697072180</v>
+        <v>74265700340</v>
       </c>
       <c r="E181">
-        <v>9816.818985923039</v>
+        <v>4854.306596348961</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G181">
-        <v>1867</v>
+        <v>1798</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -5455,19 +5455,19 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <v>92921718046</v>
+        <v>18598140279</v>
       </c>
       <c r="D182">
-        <v>85812788074</v>
+        <v>63102608961</v>
       </c>
       <c r="E182">
-        <v>9874.086885143503</v>
+        <v>4891.175112306758</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G182">
-        <v>1838</v>
+        <v>1935</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -5481,19 +5481,19 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>1507419437</v>
+        <v>77757820618</v>
       </c>
       <c r="D183">
-        <v>92921718046</v>
+        <v>18598140279</v>
       </c>
       <c r="E183">
-        <v>9931.372348017532</v>
+        <v>4928.192331919417</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G183">
-        <v>1808</v>
+        <v>1835</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -5507,21 +5507,2985 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>4599327848</v>
+        <v>2284811182</v>
       </c>
       <c r="D184">
-        <v>1507419437</v>
+        <v>77757820618</v>
       </c>
       <c r="E184">
-        <v>9988.67526163499</v>
+        <v>4965.357299226788</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G184">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="H184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>183</v>
+      </c>
+      <c r="C185">
+        <v>73325594847</v>
+      </c>
+      <c r="D185">
+        <v>2284811182</v>
+      </c>
+      <c r="E185">
+        <v>5002.66906441423</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="G185">
+        <v>1788</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>184</v>
+      </c>
+      <c r="C186">
+        <v>36737882120</v>
+      </c>
+      <c r="D186">
+        <v>73325594847</v>
+      </c>
+      <c r="E186">
+        <v>5040.126683773105</v>
+      </c>
+      <c r="F186">
+        <v>2</v>
+      </c>
+      <c r="G186">
+        <v>1848</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>185</v>
+      </c>
+      <c r="C187">
+        <v>95920803256</v>
+      </c>
+      <c r="D187">
+        <v>36737882120</v>
+      </c>
+      <c r="E187">
+        <v>5077.729219661526</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187">
+        <v>1809</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>186</v>
+      </c>
+      <c r="C188">
+        <v>53797095188</v>
+      </c>
+      <c r="D188">
+        <v>95920803256</v>
+      </c>
+      <c r="E188">
+        <v>5115.475740465354</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="G188">
+        <v>1752</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>187</v>
+      </c>
+      <c r="C189">
+        <v>70449529984</v>
+      </c>
+      <c r="D189">
+        <v>53797095188</v>
+      </c>
+      <c r="E189">
+        <v>5153.365320559446</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189">
+        <v>1870</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>188</v>
+      </c>
+      <c r="C190">
+        <v>51359407771</v>
+      </c>
+      <c r="D190">
+        <v>70449529984</v>
+      </c>
+      <c r="E190">
+        <v>5191.397040269162</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="G190">
+        <v>1789</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>189</v>
+      </c>
+      <c r="C191">
+        <v>71005868198</v>
+      </c>
+      <c r="D191">
+        <v>51359407771</v>
+      </c>
+      <c r="E191">
+        <v>5229.569985832102</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="G191">
+        <v>1844</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>190</v>
+      </c>
+      <c r="C192">
+        <v>17387045916</v>
+      </c>
+      <c r="D192">
+        <v>71005868198</v>
+      </c>
+      <c r="E192">
+        <v>5267.883249360105</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192">
+        <v>1860</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>191</v>
+      </c>
+      <c r="C193">
+        <v>89521962647</v>
+      </c>
+      <c r="D193">
+        <v>17387045916</v>
+      </c>
+      <c r="E193">
+        <v>5306.335928801481</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="G193">
+        <v>1819</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>192</v>
+      </c>
+      <c r="C194">
+        <v>97314063410</v>
+      </c>
+      <c r="D194">
+        <v>89521962647</v>
+      </c>
+      <c r="E194">
+        <v>5344.927127903494</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+      <c r="G194">
+        <v>1905</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>193</v>
+      </c>
+      <c r="C195">
+        <v>42989719343</v>
+      </c>
+      <c r="D195">
+        <v>97314063410</v>
+      </c>
+      <c r="E195">
+        <v>5383.655956175081</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195">
+        <v>1962</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>194</v>
+      </c>
+      <c r="C196">
+        <v>57213278952</v>
+      </c>
+      <c r="D196">
+        <v>42989719343</v>
+      </c>
+      <c r="E196">
+        <v>5422.521528849814</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+      <c r="G196">
+        <v>1837</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>195</v>
+      </c>
+      <c r="C197">
+        <v>13355071104</v>
+      </c>
+      <c r="D197">
+        <v>57213278952</v>
+      </c>
+      <c r="E197">
+        <v>5461.522966849096</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="G197">
+        <v>1854</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>196</v>
+      </c>
+      <c r="C198">
+        <v>20352173280</v>
+      </c>
+      <c r="D198">
+        <v>13355071104</v>
+      </c>
+      <c r="E198">
+        <v>5500.659396745596</v>
+      </c>
+      <c r="F198">
+        <v>2</v>
+      </c>
+      <c r="G198">
+        <v>1847</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>197</v>
+      </c>
+      <c r="C199">
+        <v>21500547155</v>
+      </c>
+      <c r="D199">
+        <v>20352173280</v>
+      </c>
+      <c r="E199">
+        <v>5539.929950726925</v>
+      </c>
+      <c r="F199">
+        <v>2</v>
+      </c>
+      <c r="G199">
+        <v>1815</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>198</v>
+      </c>
+      <c r="C200">
+        <v>24758157890</v>
+      </c>
+      <c r="D200">
+        <v>21500547155</v>
+      </c>
+      <c r="E200">
+        <v>5579.333766559531</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200">
+        <v>1800</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>199</v>
+      </c>
+      <c r="C201">
+        <v>40154853976</v>
+      </c>
+      <c r="D201">
+        <v>24758157890</v>
+      </c>
+      <c r="E201">
+        <v>5618.869987552839</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+      <c r="G201">
+        <v>1827</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>200</v>
+      </c>
+      <c r="C202">
+        <v>98716193525</v>
+      </c>
+      <c r="D202">
+        <v>40154853976</v>
+      </c>
+      <c r="E202">
+        <v>5658.53776252362</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+      <c r="G202">
+        <v>1823</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>201</v>
+      </c>
+      <c r="C203">
+        <v>70563069184</v>
+      </c>
+      <c r="D203">
+        <v>98716193525</v>
+      </c>
+      <c r="E203">
+        <v>5698.336245760581</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+      <c r="G203">
+        <v>1865</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>202</v>
+      </c>
+      <c r="C204">
+        <v>38660328088</v>
+      </c>
+      <c r="D204">
+        <v>70563069184</v>
+      </c>
+      <c r="E204">
+        <v>5738.264596989191</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="G204">
+        <v>1819</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>203</v>
+      </c>
+      <c r="C205">
+        <v>14015092694</v>
+      </c>
+      <c r="D205">
+        <v>38660328088</v>
+      </c>
+      <c r="E205">
+        <v>5778.32198133673</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+      <c r="G205">
+        <v>1891</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>204</v>
+      </c>
+      <c r="C206">
+        <v>15510299417</v>
+      </c>
+      <c r="D206">
+        <v>14015092694</v>
+      </c>
+      <c r="E206">
+        <v>5818.507569297562</v>
+      </c>
+      <c r="F206">
+        <v>2</v>
+      </c>
+      <c r="G206">
+        <v>1857</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>205</v>
+      </c>
+      <c r="C207">
+        <v>17944307910</v>
+      </c>
+      <c r="D207">
+        <v>15510299417</v>
+      </c>
+      <c r="E207">
+        <v>5858.820536698631</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
+      </c>
+      <c r="G207">
+        <v>1853</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>206</v>
+      </c>
+      <c r="C208">
+        <v>26924005442</v>
+      </c>
+      <c r="D208">
+        <v>17944307910</v>
+      </c>
+      <c r="E208">
+        <v>5899.260064665184</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+      <c r="G208">
+        <v>1768</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>207</v>
+      </c>
+      <c r="C209">
+        <v>30974646679</v>
+      </c>
+      <c r="D209">
+        <v>26924005442</v>
+      </c>
+      <c r="E209">
+        <v>5939.825339586706</v>
+      </c>
+      <c r="F209">
+        <v>2</v>
+      </c>
+      <c r="G209">
+        <v>1902</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>208</v>
+      </c>
+      <c r="C210">
+        <v>64329430355</v>
+      </c>
+      <c r="D210">
+        <v>30974646679</v>
+      </c>
+      <c r="E210">
+        <v>5980.515553083078</v>
+      </c>
+      <c r="F210">
+        <v>2</v>
+      </c>
+      <c r="G210">
+        <v>1785</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>209</v>
+      </c>
+      <c r="C211">
+        <v>60061244208</v>
+      </c>
+      <c r="D211">
+        <v>64329430355</v>
+      </c>
+      <c r="E211">
+        <v>6021.329901970957</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+      <c r="G211">
+        <v>1839</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>210</v>
+      </c>
+      <c r="C212">
+        <v>10973541462</v>
+      </c>
+      <c r="D212">
+        <v>60061244208</v>
+      </c>
+      <c r="E212">
+        <v>6062.267588230362</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="G212">
+        <v>1791</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>211</v>
+      </c>
+      <c r="C213">
+        <v>97132423447</v>
+      </c>
+      <c r="D213">
+        <v>10973541462</v>
+      </c>
+      <c r="E213">
+        <v>6103.327818971487</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+      <c r="G213">
+        <v>1843</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>212</v>
+      </c>
+      <c r="C214">
+        <v>47437574129</v>
+      </c>
+      <c r="D214">
+        <v>97132423447</v>
+      </c>
+      <c r="E214">
+        <v>6144.509806401717</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+      <c r="G214">
+        <v>1820</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>213</v>
+      </c>
+      <c r="C215">
+        <v>28813986336</v>
+      </c>
+      <c r="D215">
+        <v>47437574129</v>
+      </c>
+      <c r="E215">
+        <v>6185.812767792859</v>
+      </c>
+      <c r="F215">
+        <v>2</v>
+      </c>
+      <c r="G215">
+        <v>1839</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>214</v>
+      </c>
+      <c r="C216">
+        <v>96339772608</v>
+      </c>
+      <c r="D216">
+        <v>28813986336</v>
+      </c>
+      <c r="E216">
+        <v>6227.235925448588</v>
+      </c>
+      <c r="F216">
+        <v>2</v>
+      </c>
+      <c r="G216">
+        <v>1810</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>215</v>
+      </c>
+      <c r="C217">
+        <v>17946419626</v>
+      </c>
+      <c r="D217">
+        <v>96339772608</v>
+      </c>
+      <c r="E217">
+        <v>6268.778506672099</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+      <c r="G217">
+        <v>1827</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>216</v>
+      </c>
+      <c r="C218">
+        <v>94523421156</v>
+      </c>
+      <c r="D218">
+        <v>17946419626</v>
+      </c>
+      <c r="E218">
+        <v>6310.439743733963</v>
+      </c>
+      <c r="F218">
+        <v>2</v>
+      </c>
+      <c r="G218">
+        <v>1873</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>217</v>
+      </c>
+      <c r="C219">
+        <v>34679149405</v>
+      </c>
+      <c r="D219">
+        <v>94523421156</v>
+      </c>
+      <c r="E219">
+        <v>6352.218873840198</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <v>1889</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>218</v>
+      </c>
+      <c r="C220">
+        <v>27217905425</v>
+      </c>
+      <c r="D220">
+        <v>34679149405</v>
+      </c>
+      <c r="E220">
+        <v>6394.115139100539</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="G220">
+        <v>1782</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>219</v>
+      </c>
+      <c r="C221">
+        <v>40744643654</v>
+      </c>
+      <c r="D221">
+        <v>27217905425</v>
+      </c>
+      <c r="E221">
+        <v>6436.127786496912</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="G221">
+        <v>1885</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>220</v>
+      </c>
+      <c r="C222">
+        <v>83789049629</v>
+      </c>
+      <c r="D222">
+        <v>40744643654</v>
+      </c>
+      <c r="E222">
+        <v>6478.256067852118</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="G222">
+        <v>1838</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>221</v>
+      </c>
+      <c r="C223">
+        <v>52520830257</v>
+      </c>
+      <c r="D223">
+        <v>83789049629</v>
+      </c>
+      <c r="E223">
+        <v>6520.499239798705</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
+      <c r="G223">
+        <v>1806</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>222</v>
+      </c>
+      <c r="C224">
+        <v>62683600411</v>
+      </c>
+      <c r="D224">
+        <v>52520830257</v>
+      </c>
+      <c r="E224">
+        <v>6562.856563748056</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
+      </c>
+      <c r="G224">
+        <v>1841</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>223</v>
+      </c>
+      <c r="C225">
+        <v>55770534526</v>
+      </c>
+      <c r="D225">
+        <v>62683600411</v>
+      </c>
+      <c r="E225">
+        <v>6605.327305859661</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+      <c r="G225">
+        <v>1815</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>224</v>
+      </c>
+      <c r="C226">
+        <v>67736448071</v>
+      </c>
+      <c r="D226">
+        <v>55770534526</v>
+      </c>
+      <c r="E226">
+        <v>6647.910737010598</v>
+      </c>
+      <c r="F226">
+        <v>2</v>
+      </c>
+      <c r="G226">
+        <v>1937</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>225</v>
+      </c>
+      <c r="C227">
+        <v>81169746114</v>
+      </c>
+      <c r="D227">
+        <v>67736448071</v>
+      </c>
+      <c r="E227">
+        <v>6690.606132765202</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+      <c r="G227">
+        <v>1843</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>226</v>
+      </c>
+      <c r="C228">
+        <v>85039047060</v>
+      </c>
+      <c r="D228">
+        <v>81169746114</v>
+      </c>
+      <c r="E228">
+        <v>6733.412773344935</v>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+      <c r="G228">
+        <v>1839</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>227</v>
+      </c>
+      <c r="C229">
+        <v>43176119924</v>
+      </c>
+      <c r="D229">
+        <v>85039047060</v>
+      </c>
+      <c r="E229">
+        <v>6776.329943598444</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+      <c r="G229">
+        <v>1931</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>228</v>
+      </c>
+      <c r="C230">
+        <v>32471638860</v>
+      </c>
+      <c r="D230">
+        <v>43176119924</v>
+      </c>
+      <c r="E230">
+        <v>6819.356932971818</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+      <c r="G230">
+        <v>1882</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>229</v>
+      </c>
+      <c r="C231">
+        <v>5234827973</v>
+      </c>
+      <c r="D231">
+        <v>32471638860</v>
+      </c>
+      <c r="E231">
+        <v>6862.493035479031</v>
+      </c>
+      <c r="F231">
+        <v>2</v>
+      </c>
+      <c r="G231">
+        <v>1847</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>230</v>
+      </c>
+      <c r="C232">
+        <v>23318081739</v>
+      </c>
+      <c r="D232">
+        <v>5234827973</v>
+      </c>
+      <c r="E232">
+        <v>6905.737549672578</v>
+      </c>
+      <c r="F232">
+        <v>2</v>
+      </c>
+      <c r="G232">
+        <v>1806</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>231</v>
+      </c>
+      <c r="C233">
+        <v>43445418531</v>
+      </c>
+      <c r="D233">
+        <v>23318081739</v>
+      </c>
+      <c r="E233">
+        <v>6949.089778614295</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="G233">
+        <v>1825</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>232</v>
+      </c>
+      <c r="C234">
+        <v>91541713155</v>
+      </c>
+      <c r="D234">
+        <v>43445418531</v>
+      </c>
+      <c r="E234">
+        <v>6992.549029846375</v>
+      </c>
+      <c r="F234">
+        <v>2</v>
+      </c>
+      <c r="G234">
+        <v>1788</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>233</v>
+      </c>
+      <c r="C235">
+        <v>41072205886</v>
+      </c>
+      <c r="D235">
+        <v>91541713155</v>
+      </c>
+      <c r="E235">
+        <v>7036.11461536256</v>
+      </c>
+      <c r="F235">
+        <v>2</v>
+      </c>
+      <c r="G235">
+        <v>1881</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>234</v>
+      </c>
+      <c r="C236">
+        <v>36577278610</v>
+      </c>
+      <c r="D236">
+        <v>41072205886</v>
+      </c>
+      <c r="E236">
+        <v>7079.785851579531</v>
+      </c>
+      <c r="F236">
+        <v>2</v>
+      </c>
+      <c r="G236">
+        <v>1821</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>235</v>
+      </c>
+      <c r="C237">
+        <v>78812082976</v>
+      </c>
+      <c r="D237">
+        <v>36577278610</v>
+      </c>
+      <c r="E237">
+        <v>7123.562059308469</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="G237">
+        <v>1878</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>236</v>
+      </c>
+      <c r="C238">
+        <v>74968403814</v>
+      </c>
+      <c r="D238">
+        <v>78812082976</v>
+      </c>
+      <c r="E238">
+        <v>7167.442563726802</v>
+      </c>
+      <c r="F238">
+        <v>2</v>
+      </c>
+      <c r="G238">
+        <v>1793</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>237</v>
+      </c>
+      <c r="C239">
+        <v>11819050614</v>
+      </c>
+      <c r="D239">
+        <v>74968403814</v>
+      </c>
+      <c r="E239">
+        <v>7211.426694350145</v>
+      </c>
+      <c r="F239">
+        <v>2</v>
+      </c>
+      <c r="G239">
+        <v>1869</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>238</v>
+      </c>
+      <c r="C240">
+        <v>39816592423</v>
+      </c>
+      <c r="D240">
+        <v>11819050614</v>
+      </c>
+      <c r="E240">
+        <v>7255.513785004404</v>
+      </c>
+      <c r="F240">
+        <v>2</v>
+      </c>
+      <c r="G240">
+        <v>1886</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>239</v>
+      </c>
+      <c r="C241">
+        <v>75007823925</v>
+      </c>
+      <c r="D241">
+        <v>39816592423</v>
+      </c>
+      <c r="E241">
+        <v>7299.703173798068</v>
+      </c>
+      <c r="F241">
+        <v>2</v>
+      </c>
+      <c r="G241">
+        <v>1768</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>240</v>
+      </c>
+      <c r="C242">
+        <v>57059406946</v>
+      </c>
+      <c r="D242">
+        <v>75007823925</v>
+      </c>
+      <c r="E242">
+        <v>7343.99420309468</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="G242">
+        <v>1849</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>241</v>
+      </c>
+      <c r="C243">
+        <v>87371514516</v>
+      </c>
+      <c r="D243">
+        <v>57059406946</v>
+      </c>
+      <c r="E243">
+        <v>7388.386219485482</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="G243">
+        <v>1807</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>242</v>
+      </c>
+      <c r="C244">
+        <v>25710123311</v>
+      </c>
+      <c r="D244">
+        <v>87371514516</v>
+      </c>
+      <c r="E244">
+        <v>7432.878573762236</v>
+      </c>
+      <c r="F244">
+        <v>2</v>
+      </c>
+      <c r="G244">
+        <v>1803</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>243</v>
+      </c>
+      <c r="C245">
+        <v>16221638833</v>
+      </c>
+      <c r="D245">
+        <v>25710123311</v>
+      </c>
+      <c r="E245">
+        <v>7477.47062089022</v>
+      </c>
+      <c r="F245">
+        <v>2</v>
+      </c>
+      <c r="G245">
+        <v>1811</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>244</v>
+      </c>
+      <c r="C246">
+        <v>54303533031</v>
+      </c>
+      <c r="D246">
+        <v>16221638833</v>
+      </c>
+      <c r="E246">
+        <v>7522.1617199814</v>
+      </c>
+      <c r="F246">
+        <v>2</v>
+      </c>
+      <c r="G246">
+        <v>1868</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>245</v>
+      </c>
+      <c r="C247">
+        <v>94700760762</v>
+      </c>
+      <c r="D247">
+        <v>54303533031</v>
+      </c>
+      <c r="E247">
+        <v>7566.951234267771</v>
+      </c>
+      <c r="F247">
+        <v>2</v>
+      </c>
+      <c r="G247">
+        <v>1885</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>246</v>
+      </c>
+      <c r="C248">
+        <v>12488220350</v>
+      </c>
+      <c r="D248">
+        <v>94700760762</v>
+      </c>
+      <c r="E248">
+        <v>7611.83853107487</v>
+      </c>
+      <c r="F248">
+        <v>2</v>
+      </c>
+      <c r="G248">
+        <v>1858</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>247</v>
+      </c>
+      <c r="C249">
+        <v>76647186181</v>
+      </c>
+      <c r="D249">
+        <v>12488220350</v>
+      </c>
+      <c r="E249">
+        <v>7656.822981795463</v>
+      </c>
+      <c r="F249">
+        <v>2</v>
+      </c>
+      <c r="G249">
+        <v>1912</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>248</v>
+      </c>
+      <c r="C250">
+        <v>78326317538</v>
+      </c>
+      <c r="D250">
+        <v>76647186181</v>
+      </c>
+      <c r="E250">
+        <v>7701.903961863398</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250">
+        <v>1888</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>249</v>
+      </c>
+      <c r="C251">
+        <v>45166947161</v>
+      </c>
+      <c r="D251">
+        <v>78326317538</v>
+      </c>
+      <c r="E251">
+        <v>7747.080850727622</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251">
+        <v>1835</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>250</v>
+      </c>
+      <c r="C252">
+        <v>26004757051</v>
+      </c>
+      <c r="D252">
+        <v>45166947161</v>
+      </c>
+      <c r="E252">
+        <v>7792.353031826372</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252">
+        <v>1812</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>251</v>
+      </c>
+      <c r="C253">
+        <v>61539189820</v>
+      </c>
+      <c r="D253">
+        <v>26004757051</v>
+      </c>
+      <c r="E253">
+        <v>7837.719892561534</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253">
+        <v>1875</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>252</v>
+      </c>
+      <c r="C254">
+        <v>17130796538</v>
+      </c>
+      <c r="D254">
+        <v>61539189820</v>
+      </c>
+      <c r="E254">
+        <v>7883.180824273155</v>
+      </c>
+      <c r="F254">
+        <v>2</v>
+      </c>
+      <c r="G254">
+        <v>1820</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>253</v>
+      </c>
+      <c r="C255">
+        <v>23488237130</v>
+      </c>
+      <c r="D255">
+        <v>17130796538</v>
+      </c>
+      <c r="E255">
+        <v>7928.735222214129</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255">
+        <v>1741</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>254</v>
+      </c>
+      <c r="C256">
+        <v>57481966351</v>
+      </c>
+      <c r="D256">
+        <v>23488237130</v>
+      </c>
+      <c r="E256">
+        <v>7974.382485525044</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <v>1866</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>255</v>
+      </c>
+      <c r="C257">
+        <v>9407827608</v>
+      </c>
+      <c r="D257">
+        <v>57481966351</v>
+      </c>
+      <c r="E257">
+        <v>8020.122017209188</v>
+      </c>
+      <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="G257">
+        <v>1882</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>256</v>
+      </c>
+      <c r="C258">
+        <v>71498404584</v>
+      </c>
+      <c r="D258">
+        <v>9407827608</v>
+      </c>
+      <c r="E258">
+        <v>8065.953224107718</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>1852</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>257</v>
+      </c>
+      <c r="C259">
+        <v>92687576358</v>
+      </c>
+      <c r="D259">
+        <v>71498404584</v>
+      </c>
+      <c r="E259">
+        <v>8111.875516874985</v>
+      </c>
+      <c r="F259">
+        <v>2</v>
+      </c>
+      <c r="G259">
+        <v>1777</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>258</v>
+      </c>
+      <c r="C260">
+        <v>33605277496</v>
+      </c>
+      <c r="D260">
+        <v>92687576358</v>
+      </c>
+      <c r="E260">
+        <v>8157.888309954024</v>
+      </c>
+      <c r="F260">
+        <v>2</v>
+      </c>
+      <c r="G260">
+        <v>1879</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>259</v>
+      </c>
+      <c r="C261">
+        <v>90145763391</v>
+      </c>
+      <c r="D261">
+        <v>33605277496</v>
+      </c>
+      <c r="E261">
+        <v>8203.9910215522</v>
+      </c>
+      <c r="F261">
+        <v>2</v>
+      </c>
+      <c r="G261">
+        <v>1778</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>260</v>
+      </c>
+      <c r="C262">
+        <v>54373210731</v>
+      </c>
+      <c r="D262">
+        <v>90145763391</v>
+      </c>
+      <c r="E262">
+        <v>8250.183073616998</v>
+      </c>
+      <c r="F262">
+        <v>2</v>
+      </c>
+      <c r="G262">
+        <v>1893</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>261</v>
+      </c>
+      <c r="C263">
+        <v>66801683746</v>
+      </c>
+      <c r="D263">
+        <v>54373210731</v>
+      </c>
+      <c r="E263">
+        <v>8296.463891811991</v>
+      </c>
+      <c r="F263">
+        <v>2</v>
+      </c>
+      <c r="G263">
+        <v>1914</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>262</v>
+      </c>
+      <c r="C264">
+        <v>50176868261</v>
+      </c>
+      <c r="D264">
+        <v>66801683746</v>
+      </c>
+      <c r="E264">
+        <v>8342.832905492947</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
+      </c>
+      <c r="G264">
+        <v>1888</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>263</v>
+      </c>
+      <c r="C265">
+        <v>25266347939</v>
+      </c>
+      <c r="D265">
+        <v>50176868261</v>
+      </c>
+      <c r="E265">
+        <v>8389.289547684089</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="G265">
+        <v>1860</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>264</v>
+      </c>
+      <c r="C266">
+        <v>33186223243</v>
+      </c>
+      <c r="D266">
+        <v>25266347939</v>
+      </c>
+      <c r="E266">
+        <v>8435.833255054518</v>
+      </c>
+      <c r="F266">
+        <v>2</v>
+      </c>
+      <c r="G266">
+        <v>1805</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>265</v>
+      </c>
+      <c r="C267">
+        <v>14637939413</v>
+      </c>
+      <c r="D267">
+        <v>33186223243</v>
+      </c>
+      <c r="E267">
+        <v>8482.463467894775</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="G267">
+        <v>1771</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>266</v>
+      </c>
+      <c r="C268">
+        <v>77102487034</v>
+      </c>
+      <c r="D268">
+        <v>14637939413</v>
+      </c>
+      <c r="E268">
+        <v>8529.179630093568</v>
+      </c>
+      <c r="F268">
+        <v>2</v>
+      </c>
+      <c r="G268">
+        <v>1838</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>267</v>
+      </c>
+      <c r="C269">
+        <v>10349827374</v>
+      </c>
+      <c r="D269">
+        <v>77102487034</v>
+      </c>
+      <c r="E269">
+        <v>8575.981189114631</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <v>1937</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>268</v>
+      </c>
+      <c r="C270">
+        <v>5969019575</v>
+      </c>
+      <c r="D270">
+        <v>10349827374</v>
+      </c>
+      <c r="E270">
+        <v>8622.867595973754</v>
+      </c>
+      <c r="F270">
+        <v>2</v>
+      </c>
+      <c r="G270">
+        <v>1896</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>269</v>
+      </c>
+      <c r="C271">
+        <v>3223345614</v>
+      </c>
+      <c r="D271">
+        <v>5969019575</v>
+      </c>
+      <c r="E271">
+        <v>8669.838305215933</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+      <c r="G271">
+        <v>1803</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>270</v>
+      </c>
+      <c r="C272">
+        <v>24120700594</v>
+      </c>
+      <c r="D272">
+        <v>3223345614</v>
+      </c>
+      <c r="E272">
+        <v>8716.892774892698</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
+      </c>
+      <c r="G272">
+        <v>1854</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>271</v>
+      </c>
+      <c r="C273">
+        <v>39941629354</v>
+      </c>
+      <c r="D273">
+        <v>24120700594</v>
+      </c>
+      <c r="E273">
+        <v>8764.030466539556</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+      <c r="G273">
+        <v>1894</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>272</v>
+      </c>
+      <c r="C274">
+        <v>27983626245</v>
+      </c>
+      <c r="D274">
+        <v>39941629354</v>
+      </c>
+      <c r="E274">
+        <v>8811.250845153605</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+      <c r="G274">
+        <v>1866</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>273</v>
+      </c>
+      <c r="C275">
+        <v>72670610862</v>
+      </c>
+      <c r="D275">
+        <v>27983626245</v>
+      </c>
+      <c r="E275">
+        <v>8858.553379171275</v>
+      </c>
+      <c r="F275">
+        <v>2</v>
+      </c>
+      <c r="G275">
+        <v>1821</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>274</v>
+      </c>
+      <c r="C276">
+        <v>13259678864</v>
+      </c>
+      <c r="D276">
+        <v>72670610862</v>
+      </c>
+      <c r="E276">
+        <v>8905.937540446221</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+      <c r="G276">
+        <v>1878</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>275</v>
+      </c>
+      <c r="C277">
+        <v>12724126356</v>
+      </c>
+      <c r="D277">
+        <v>13259678864</v>
+      </c>
+      <c r="E277">
+        <v>8953.402804227349</v>
+      </c>
+      <c r="F277">
+        <v>2</v>
+      </c>
+      <c r="G277">
+        <v>1812</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>276</v>
+      </c>
+      <c r="C278">
+        <v>11403913246</v>
+      </c>
+      <c r="D278">
+        <v>12724126356</v>
+      </c>
+      <c r="E278">
+        <v>9000.948649136999</v>
+      </c>
+      <c r="F278">
+        <v>2</v>
+      </c>
+      <c r="G278">
+        <v>1738</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>277</v>
+      </c>
+      <c r="C279">
+        <v>16316910459</v>
+      </c>
+      <c r="D279">
+        <v>11403913246</v>
+      </c>
+      <c r="E279">
+        <v>9048.574557149248</v>
+      </c>
+      <c r="F279">
+        <v>2</v>
+      </c>
+      <c r="G279">
+        <v>1841</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>278</v>
+      </c>
+      <c r="C280">
+        <v>91004415956</v>
+      </c>
+      <c r="D280">
+        <v>16316910459</v>
+      </c>
+      <c r="E280">
+        <v>9096.280013568372</v>
+      </c>
+      <c r="F280">
+        <v>2</v>
+      </c>
+      <c r="G280">
+        <v>1884</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>279</v>
+      </c>
+      <c r="C281">
+        <v>24931206505</v>
+      </c>
+      <c r="D281">
+        <v>91004415956</v>
+      </c>
+      <c r="E281">
+        <v>9144.06450700743</v>
+      </c>
+      <c r="F281">
+        <v>2</v>
+      </c>
+      <c r="G281">
+        <v>1812</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>280</v>
+      </c>
+      <c r="C282">
+        <v>2874396142</v>
+      </c>
+      <c r="D282">
+        <v>24931206505</v>
+      </c>
+      <c r="E282">
+        <v>9191.927529366996</v>
+      </c>
+      <c r="F282">
+        <v>2</v>
+      </c>
+      <c r="G282">
+        <v>1814</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>281</v>
+      </c>
+      <c r="C283">
+        <v>6658632579</v>
+      </c>
+      <c r="D283">
+        <v>2874396142</v>
+      </c>
+      <c r="E283">
+        <v>9239.868575814027</v>
+      </c>
+      <c r="F283">
+        <v>2</v>
+      </c>
+      <c r="G283">
+        <v>1796</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>282</v>
+      </c>
+      <c r="C284">
+        <v>76246908201</v>
+      </c>
+      <c r="D284">
+        <v>6658632579</v>
+      </c>
+      <c r="E284">
+        <v>9287.887144760864</v>
+      </c>
+      <c r="F284">
+        <v>2</v>
+      </c>
+      <c r="G284">
+        <v>1842</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>283</v>
+      </c>
+      <c r="C285">
+        <v>38490300222</v>
+      </c>
+      <c r="D285">
+        <v>76246908201</v>
+      </c>
+      <c r="E285">
+        <v>9335.982737844362</v>
+      </c>
+      <c r="F285">
+        <v>2</v>
+      </c>
+      <c r="G285">
+        <v>1804</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>284</v>
+      </c>
+      <c r="C286">
+        <v>67714734903</v>
+      </c>
+      <c r="D286">
+        <v>38490300222</v>
+      </c>
+      <c r="E286">
+        <v>9384.154859905173</v>
+      </c>
+      <c r="F286">
+        <v>2</v>
+      </c>
+      <c r="G286">
+        <v>1836</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>285</v>
+      </c>
+      <c r="C287">
+        <v>24030574928</v>
+      </c>
+      <c r="D287">
+        <v>67714734903</v>
+      </c>
+      <c r="E287">
+        <v>9432.403018967139</v>
+      </c>
+      <c r="F287">
+        <v>2</v>
+      </c>
+      <c r="G287">
+        <v>1775</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>286</v>
+      </c>
+      <c r="C288">
+        <v>4804413734</v>
+      </c>
+      <c r="D288">
+        <v>24030574928</v>
+      </c>
+      <c r="E288">
+        <v>9480.726726216833</v>
+      </c>
+      <c r="F288">
+        <v>2</v>
+      </c>
+      <c r="G288">
+        <v>1759</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>287</v>
+      </c>
+      <c r="C289">
+        <v>5213065737</v>
+      </c>
+      <c r="D289">
+        <v>4804413734</v>
+      </c>
+      <c r="E289">
+        <v>9529.125495983228</v>
+      </c>
+      <c r="F289">
+        <v>2</v>
+      </c>
+      <c r="G289">
+        <v>1791</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>288</v>
+      </c>
+      <c r="C290">
+        <v>74533812095</v>
+      </c>
+      <c r="D290">
+        <v>5213065737</v>
+      </c>
+      <c r="E290">
+        <v>9577.59884571749</v>
+      </c>
+      <c r="F290">
+        <v>2</v>
+      </c>
+      <c r="G290">
+        <v>1858</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>289</v>
+      </c>
+      <c r="C291">
+        <v>73624189215</v>
+      </c>
+      <c r="D291">
+        <v>74533812095</v>
+      </c>
+      <c r="E291">
+        <v>9626.146295972918</v>
+      </c>
+      <c r="F291">
+        <v>2</v>
+      </c>
+      <c r="G291">
+        <v>1832</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>290</v>
+      </c>
+      <c r="C292">
+        <v>9554116923</v>
+      </c>
+      <c r="D292">
+        <v>73624189215</v>
+      </c>
+      <c r="E292">
+        <v>9674.767370384989</v>
+      </c>
+      <c r="F292">
+        <v>2</v>
+      </c>
+      <c r="G292">
+        <v>1905</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>291</v>
+      </c>
+      <c r="C293">
+        <v>508989199</v>
+      </c>
+      <c r="D293">
+        <v>9554116923</v>
+      </c>
+      <c r="E293">
+        <v>9723.46159565155</v>
+      </c>
+      <c r="F293">
+        <v>2</v>
+      </c>
+      <c r="G293">
+        <v>1867</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>292</v>
+      </c>
+      <c r="C294">
+        <v>48125561096</v>
+      </c>
+      <c r="D294">
+        <v>508989199</v>
+      </c>
+      <c r="E294">
+        <v>9772.228501513133</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="G294">
+        <v>1887</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>293</v>
+      </c>
+      <c r="C295">
+        <v>76421624819</v>
+      </c>
+      <c r="D295">
+        <v>48125561096</v>
+      </c>
+      <c r="E295">
+        <v>9821.067620733389</v>
+      </c>
+      <c r="F295">
+        <v>2</v>
+      </c>
+      <c r="G295">
+        <v>1853</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>294</v>
+      </c>
+      <c r="C296">
+        <v>20806523182</v>
+      </c>
+      <c r="D296">
+        <v>76421624819</v>
+      </c>
+      <c r="E296">
+        <v>9869.97848907966</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+      <c r="G296">
+        <v>1846</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>295</v>
+      </c>
+      <c r="C297">
+        <v>95559044945</v>
+      </c>
+      <c r="D297">
+        <v>20806523182</v>
+      </c>
+      <c r="E297">
+        <v>9918.960645303661</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+      <c r="G297">
+        <v>1848</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>296</v>
+      </c>
+      <c r="C298">
+        <v>83204262255</v>
+      </c>
+      <c r="D298">
+        <v>95559044945</v>
+      </c>
+      <c r="E298">
+        <v>9968.013631122307</v>
+      </c>
+      <c r="F298">
+        <v>2</v>
+      </c>
+      <c r="G298">
+        <v>1817</v>
+      </c>
+      <c r="H298">
         <v>1</v>
       </c>
     </row>
